--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -5,23 +5,23 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy Innovation)\EI EPS\Canada InputData\land\RPEpUACE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\land\RPEpUACE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="380" yWindow="80" windowWidth="19140" windowHeight="9260"/>
+    <workbookView xWindow="383" yWindow="83" windowWidth="19140" windowHeight="9263"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="RPEpUACE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" calcOnSave="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>RPEpUACE Rebound Pollutant Emissions per Unit Avoided CO2 Emissions</t>
   </si>
@@ -47,9 +47,6 @@
     <t>and to the effects of policy levers in the model.</t>
   </si>
   <si>
-    <t>Excerpt from Table 6-3:</t>
-  </si>
-  <si>
     <t>CO2</t>
   </si>
   <si>
@@ -95,16 +92,22 @@
     <t>F gases</t>
   </si>
   <si>
-    <t>Rebound Emis Factor</t>
-  </si>
-  <si>
-    <t>IPCC</t>
-  </si>
-  <si>
-    <t>National Inventory for Canada</t>
-  </si>
-  <si>
-    <t>http://unfccc.int/files/national_reports/annex_i_ghg_inventories/national_inventories_submissions/application/zip/can-2017-nir-13apr17.zip</t>
+    <t>Rebound Emis Factor (dimensionless)</t>
+  </si>
+  <si>
+    <t>Excerpt from Table 6-2:</t>
+  </si>
+  <si>
+    <t>US EPA</t>
+  </si>
+  <si>
+    <t>Draft Inventory of US Greenhouse Gas Emissions Emissions and Sinks</t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/sites/production/files/2021-02/documents/us-ghg-inventory-2021-main-text.pdf</t>
+  </si>
+  <si>
+    <t>Table 6-3</t>
   </si>
 </sst>
 </file>
@@ -473,17 +476,17 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -491,226 +494,214 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="4">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" customWidth="1"/>
-    <col min="2" max="2" width="8.90625" customWidth="1"/>
+    <col min="1" max="1" width="14.19921875" customWidth="1"/>
+    <col min="2" max="2" width="8.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>2015</v>
+      </c>
+      <c r="C3">
+        <v>2016</v>
+      </c>
+      <c r="D3">
+        <v>2017</v>
+      </c>
+      <c r="E3">
+        <v>2018</v>
+      </c>
+      <c r="F3">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="B4">
+        <v>-791695</v>
+      </c>
+      <c r="C4">
+        <v>-855998</v>
+      </c>
+      <c r="D4">
+        <v>-792046</v>
+      </c>
+      <c r="E4">
+        <v>-824885</v>
+      </c>
+      <c r="F4">
+        <v>-812695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>663</v>
+      </c>
+      <c r="C5">
+        <v>308</v>
+      </c>
+      <c r="D5">
+        <v>614</v>
+      </c>
+      <c r="E5">
+        <v>552</v>
+      </c>
+      <c r="F5">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>38</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B3">
-        <v>2010</v>
-      </c>
-      <c r="C3">
-        <v>2011</v>
-      </c>
-      <c r="D3">
-        <v>2012</v>
-      </c>
-      <c r="E3">
-        <v>2013</v>
-      </c>
-      <c r="F3">
-        <v>2014</v>
-      </c>
-      <c r="G3">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>-29287.008104463519</v>
-      </c>
-      <c r="C4">
-        <v>-27430.816310569979</v>
-      </c>
-      <c r="D4">
-        <v>-31911.398995150092</v>
-      </c>
-      <c r="E4">
-        <v>-30868.040672120012</v>
-      </c>
-      <c r="F4">
-        <v>-34312.449999999997</v>
-      </c>
-      <c r="G4">
-        <v>-34946.400000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>30.787701999999999</v>
-      </c>
-      <c r="C5">
-        <v>39.142113999999999</v>
-      </c>
-      <c r="D5">
-        <v>70.005784000000006</v>
-      </c>
-      <c r="E5">
-        <v>41.687182</v>
-      </c>
-      <c r="F5">
-        <v>39.529648000000002</v>
-      </c>
-      <c r="G5">
-        <v>39.983035000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>1.1131880000000001</v>
-      </c>
-      <c r="C6">
-        <v>1.3463510000000001</v>
-      </c>
-      <c r="D6">
-        <v>2.155386</v>
-      </c>
-      <c r="E6">
-        <v>1.43649</v>
-      </c>
-      <c r="F6">
-        <v>1.3363849999999999</v>
-      </c>
-      <c r="G6">
-        <v>1.3533520000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>13</v>
       </c>
       <c r="B8" s="3">
         <f>B5/B4</f>
-        <v>-1.0512409424063964E-3</v>
+        <v>-8.3744371254081433E-4</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" ref="C8:F8" si="0">C5/C4</f>
-        <v>-1.4269394522144526E-3</v>
+        <v>-3.5981392479888971E-4</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="0"/>
-        <v>-2.1937547774273235E-3</v>
+        <v>-7.7520750057446164E-4</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>-1.3504965359739151E-3</v>
+        <v>-6.6918418931123734E-4</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>-1.1520497079048567E-3</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" ref="G8" si="1">G5/G4</f>
-        <v>-1.1441245736327633E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>-6.7922160220008736E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <f>B6/B4</f>
-        <v>-3.8009618327327309E-5</v>
+        <v>-4.7998282166743506E-5</v>
       </c>
       <c r="C9" s="3">
-        <f t="shared" ref="C9:F9" si="2">C6/C4</f>
-        <v>-4.9081696467093748E-5</v>
+        <f t="shared" ref="C9:F9" si="1">C6/C4</f>
+        <v>-2.1028086514220829E-5</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="2"/>
-        <v>-6.7542823814386091E-5</v>
+        <f t="shared" si="1"/>
+        <v>-4.5451905571141073E-5</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="2"/>
-        <v>-4.6536481380803562E-5</v>
+        <f t="shared" si="1"/>
+        <v>-3.8793286336883321E-5</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="2"/>
-        <v>-3.8947524877996181E-5</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" ref="G9" si="3">G6/G4</f>
-        <v>-3.8726506879106289E-5</v>
+        <f t="shared" si="1"/>
+        <v>-3.9375165344932599E-5</v>
       </c>
     </row>
   </sheetData>
@@ -726,112 +717,112 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="B11" s="3">
+        <f>-AVERAGE(Data!B8:F8)</f>
+        <v>6.6417418588509813E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3">
+        <f>-AVERAGE(Data!B9:F9)</f>
+        <v>3.8529345186784264E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>22</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <f>-AVERAGE(Data!B8:G8)</f>
-        <v>1.3864343315932847E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <f>-AVERAGE(Data!B9:G9)</f>
-        <v>4.6474108624452196E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>23</v>
       </c>
       <c r="B13">
         <v>0</v>
